--- a/supplemental_info/tables/191104_CMS_TableS1.xlsx
+++ b/supplemental_info/tables/191104_CMS_TableS1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amy.kistler/Box Sync/2019_Manuscripts/CMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amy.kistler/code/projects/skeeters/supplemental_info/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="3340" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="191104_CMS_TableS1.csv" sheetId="1" r:id="rId1"/>
@@ -1151,7 +1151,7 @@
     <t> **sex based on visual call from collection agency</t>
   </si>
   <si>
-    <t>‡Habitat type and Population info pulled from California Vectorborne Disease Surveillance System (CalSurv) data for each trap site</t>
+    <t>‡Habitat type and Population = information pulled from California Vectorborne Disease Surveillance System (CalSurv) data for each trap site</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1160,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1239,14 +1239,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:N158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H142" activeCellId="2" sqref="I1:J1048576 J135 H142"/>
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/supplemental_info/tables/191104_CMS_TableS1.xlsx
+++ b/supplemental_info/tables/191104_CMS_TableS1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="191104_CMS_TableS1.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="389">
   <si>
     <t>Sequence ID</t>
   </si>
@@ -1152,6 +1152,86 @@
   </si>
   <si>
     <t>‡Habitat type and Population = information pulled from California Vectorborne Disease Surveillance System (CalSurv) data for each trap site</t>
+  </si>
+  <si>
+    <t>Discrepant_genus_species_call</t>
+  </si>
+  <si>
+    <t>Discrepant_method</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Culiseta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>incidens</t>
+    </r>
+  </si>
+  <si>
+    <t>visual, sourmash</t>
+  </si>
+  <si>
+    <t>Culex tarsalis</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Culex </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tarsalis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Culex </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tarsalis</t>
+    </r>
+  </si>
+  <si>
+    <t>no call</t>
+  </si>
+  <si>
+    <t>no vis data</t>
+  </si>
+  <si>
+    <t>Culiseta inornata</t>
+  </si>
+  <si>
+    <t>missing sample? no sourmash or ska call</t>
+  </si>
+  <si>
+    <t>Culex quinquefasciatus</t>
+  </si>
+  <si>
+    <t>Culex pipiens</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1242,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1176,6 +1256,28 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1214,7 +1316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1249,6 +1351,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1526,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="101" workbookViewId="0">
+      <selection activeCell="O146" sqref="O146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1548,7 +1652,7 @@
     <col min="14" max="14" width="26.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1591,8 +1695,14 @@
       <c r="N1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1635,8 +1745,10 @@
       <c r="N2" s="3">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1679,8 +1791,10 @@
       <c r="N3" s="3">
         <v>59.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1723,8 +1837,10 @@
       <c r="N4" s="3">
         <v>88.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1767,8 +1883,10 @@
       <c r="N5" s="3">
         <v>88.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1811,8 +1929,10 @@
       <c r="N6" s="3">
         <v>240.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1855,8 +1975,10 @@
       <c r="N7" s="3">
         <v>32.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1899,8 +2021,10 @@
       <c r="N8" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -1943,8 +2067,10 @@
       <c r="N9" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1987,8 +2113,10 @@
       <c r="N10" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -2031,8 +2159,10 @@
       <c r="N11" s="3">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -2075,8 +2205,10 @@
       <c r="N12" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -2119,8 +2251,10 @@
       <c r="N13" s="3">
         <v>86.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -2163,8 +2297,10 @@
       <c r="N14" s="3">
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>52</v>
       </c>
@@ -2207,8 +2343,14 @@
       <c r="N15" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -2251,8 +2393,10 @@
       <c r="N16" s="3">
         <v>63.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
@@ -2295,8 +2439,10 @@
       <c r="N17" s="3">
         <v>153.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
@@ -2339,8 +2485,10 @@
       <c r="N18" s="3">
         <v>73.900000000000006</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -2383,8 +2531,10 @@
       <c r="N19" s="3">
         <v>46.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
@@ -2427,8 +2577,10 @@
       <c r="N20" s="3">
         <v>59.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2623,10 @@
       <c r="N21" s="3">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
@@ -2515,8 +2669,10 @@
       <c r="N22" s="3">
         <v>32.200000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
@@ -2559,8 +2715,10 @@
       <c r="N23" s="3">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -2603,8 +2761,10 @@
       <c r="N24" s="3">
         <v>98.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>74</v>
       </c>
@@ -2647,8 +2807,10 @@
       <c r="N25" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>76</v>
       </c>
@@ -2691,8 +2853,14 @@
       <c r="N26" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
@@ -2735,8 +2903,14 @@
       <c r="N27" s="3">
         <v>60.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
@@ -2779,8 +2953,10 @@
       <c r="N28" s="3">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>84</v>
       </c>
@@ -2823,8 +2999,10 @@
       <c r="N29" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -2867,8 +3045,10 @@
       <c r="N30" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -2911,8 +3091,10 @@
       <c r="N31" s="3">
         <v>273</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>91</v>
       </c>
@@ -2955,8 +3137,10 @@
       <c r="N32" s="3">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>93</v>
       </c>
@@ -2999,8 +3183,10 @@
       <c r="N33" s="3">
         <v>124.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>97</v>
       </c>
@@ -3043,8 +3229,10 @@
       <c r="N34" s="3">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
@@ -3087,8 +3275,10 @@
       <c r="N35" s="3">
         <v>56.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>101</v>
       </c>
@@ -3131,8 +3321,10 @@
       <c r="N36" s="3">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
@@ -3175,8 +3367,10 @@
       <c r="N37" s="3">
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
@@ -3219,8 +3413,10 @@
       <c r="N38" s="3">
         <v>42.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
@@ -3263,8 +3459,10 @@
       <c r="N39" s="3">
         <v>74.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
@@ -3307,8 +3505,10 @@
       <c r="N40" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>111</v>
       </c>
@@ -3351,8 +3551,14 @@
       <c r="N41" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="P41" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>114</v>
       </c>
@@ -3395,8 +3601,10 @@
       <c r="N42" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>116</v>
       </c>
@@ -3439,8 +3647,10 @@
       <c r="N43" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>118</v>
       </c>
@@ -3483,8 +3693,10 @@
       <c r="N44" s="3">
         <v>134</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>120</v>
       </c>
@@ -3527,8 +3739,10 @@
       <c r="N45" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>122</v>
       </c>
@@ -3571,8 +3785,14 @@
       <c r="N46" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="P46" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>124</v>
       </c>
@@ -3615,8 +3835,10 @@
       <c r="N47" s="3">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>126</v>
       </c>
@@ -3659,8 +3881,10 @@
       <c r="N48" s="3">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>128</v>
       </c>
@@ -3703,8 +3927,10 @@
       <c r="N49" s="3">
         <v>29.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>130</v>
       </c>
@@ -3747,8 +3973,10 @@
       <c r="N50" s="3">
         <v>54.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>132</v>
       </c>
@@ -3791,8 +4019,10 @@
       <c r="N51" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>134</v>
       </c>
@@ -3835,8 +4065,10 @@
       <c r="N52" s="3">
         <v>94.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>136</v>
       </c>
@@ -3879,8 +4111,10 @@
       <c r="N53" s="3">
         <v>63.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>138</v>
       </c>
@@ -3923,8 +4157,10 @@
       <c r="N54" s="3">
         <v>75.599999999999994</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>140</v>
       </c>
@@ -3967,8 +4203,10 @@
       <c r="N55" s="3">
         <v>69.599999999999994</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>142</v>
       </c>
@@ -4011,8 +4249,10 @@
       <c r="N56" s="3">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>144</v>
       </c>
@@ -4055,8 +4295,10 @@
       <c r="N57" s="3">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>146</v>
       </c>
@@ -4099,8 +4341,10 @@
       <c r="N58" s="3">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>148</v>
       </c>
@@ -4143,8 +4387,14 @@
       <c r="N59" s="3">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="P59" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>150</v>
       </c>
@@ -4187,8 +4437,10 @@
       <c r="N60" s="3">
         <v>201</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>152</v>
       </c>
@@ -4225,8 +4477,14 @@
       <c r="N61" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="P61" s="16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>154</v>
       </c>
@@ -4269,8 +4527,10 @@
       <c r="N62" s="3">
         <v>78.400000000000006</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>161</v>
       </c>
@@ -4313,8 +4573,10 @@
       <c r="N63" s="3">
         <v>101.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>164</v>
       </c>
@@ -4357,8 +4619,14 @@
       <c r="N64" s="3">
         <v>103.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="P64" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>166</v>
       </c>
@@ -4401,8 +4669,10 @@
       <c r="N65" s="3">
         <v>264</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>169</v>
       </c>
@@ -4445,8 +4715,10 @@
       <c r="N66" s="3">
         <v>30.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>171</v>
       </c>
@@ -4489,8 +4761,10 @@
       <c r="N67" s="3">
         <v>81.599999999999994</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>176</v>
       </c>
@@ -4533,8 +4807,10 @@
       <c r="N68" s="3">
         <v>62.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>179</v>
       </c>
@@ -4577,8 +4853,10 @@
       <c r="N69" s="3">
         <v>54.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>181</v>
       </c>
@@ -4621,8 +4899,10 @@
       <c r="N70" s="3">
         <v>34.799999999999997</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>183</v>
       </c>
@@ -4665,8 +4945,10 @@
       <c r="N71" s="3">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>185</v>
       </c>
@@ -4709,8 +4991,10 @@
       <c r="N72" s="3">
         <v>45.2</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>187</v>
       </c>
@@ -4753,8 +5037,10 @@
       <c r="N73" s="3">
         <v>138.4</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>189</v>
       </c>
@@ -4797,8 +5083,10 @@
       <c r="N74" s="3">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>191</v>
       </c>
@@ -4841,8 +5129,10 @@
       <c r="N75" s="3">
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>193</v>
       </c>
@@ -4885,8 +5175,10 @@
       <c r="N76" s="3">
         <v>135.19999999999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>197</v>
       </c>
@@ -4929,8 +5221,10 @@
       <c r="N77" s="3">
         <v>260.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>199</v>
       </c>
@@ -4973,8 +5267,10 @@
       <c r="N78" s="3">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>201</v>
       </c>
@@ -5017,8 +5313,10 @@
       <c r="N79" s="3">
         <v>242.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>203</v>
       </c>
@@ -5061,8 +5359,10 @@
       <c r="N80" s="3">
         <v>145.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>205</v>
       </c>
@@ -5105,8 +5405,10 @@
       <c r="N81" s="3">
         <v>235.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>207</v>
       </c>
@@ -5149,8 +5451,10 @@
       <c r="N82" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>209</v>
       </c>
@@ -5193,8 +5497,10 @@
       <c r="N83" s="3">
         <v>61.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>211</v>
       </c>
@@ -5237,8 +5543,10 @@
       <c r="N84" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>215</v>
       </c>
@@ -5281,8 +5589,10 @@
       <c r="N85" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>217</v>
       </c>
@@ -5325,8 +5635,10 @@
       <c r="N86" s="3">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>219</v>
       </c>
@@ -5369,8 +5681,10 @@
       <c r="N87" s="3">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>221</v>
       </c>
@@ -5413,8 +5727,10 @@
       <c r="N88" s="3">
         <v>36.64</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>223</v>
       </c>
@@ -5457,8 +5773,10 @@
       <c r="N89" s="3">
         <v>296</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>225</v>
       </c>
@@ -5501,8 +5819,10 @@
       <c r="N90" s="3">
         <v>29.12</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>228</v>
       </c>
@@ -5545,8 +5865,10 @@
       <c r="N91" s="3">
         <v>26.96</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>230</v>
       </c>
@@ -5589,8 +5911,10 @@
       <c r="N92" s="3">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>232</v>
       </c>
@@ -5633,8 +5957,10 @@
       <c r="N93" s="3">
         <v>119.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>234</v>
       </c>
@@ -5677,8 +6003,10 @@
       <c r="N94" s="3">
         <v>27.44</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>236</v>
       </c>
@@ -5721,8 +6049,10 @@
       <c r="N95" s="3">
         <v>189.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>239</v>
       </c>
@@ -5765,8 +6095,10 @@
       <c r="N96" s="3">
         <v>191.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>241</v>
       </c>
@@ -5809,8 +6141,10 @@
       <c r="N97" s="3">
         <v>82.4</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>244</v>
       </c>
@@ -5853,8 +6187,10 @@
       <c r="N98" s="3">
         <v>104.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>246</v>
       </c>
@@ -5897,8 +6233,10 @@
       <c r="N99" s="3">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>248</v>
       </c>
@@ -5941,8 +6279,10 @@
       <c r="N100" s="3">
         <v>57.2</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>250</v>
       </c>
@@ -5985,8 +6325,10 @@
       <c r="N101" s="3">
         <v>79.599999999999994</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>252</v>
       </c>
@@ -6029,8 +6371,10 @@
       <c r="N102" s="3">
         <v>121.6</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>254</v>
       </c>
@@ -6073,8 +6417,10 @@
       <c r="N103" s="3">
         <v>179.2</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>256</v>
       </c>
@@ -6117,8 +6463,10 @@
       <c r="N104" s="3">
         <v>179.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>258</v>
       </c>
@@ -6161,8 +6509,10 @@
       <c r="N105" s="3">
         <v>116.8</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>260</v>
       </c>
@@ -6205,8 +6555,10 @@
       <c r="N106" s="3">
         <v>47.2</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>262</v>
       </c>
@@ -6249,8 +6601,10 @@
       <c r="N107" s="3">
         <v>27.68</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>266</v>
       </c>
@@ -6293,8 +6647,10 @@
       <c r="N108" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O108" s="16"/>
+      <c r="P108" s="16"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>269</v>
       </c>
@@ -6337,8 +6693,10 @@
       <c r="N109" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O109" s="16"/>
+      <c r="P109" s="16"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>272</v>
       </c>
@@ -6381,8 +6739,10 @@
       <c r="N110" s="3">
         <v>39.840000000000003</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O110" s="16"/>
+      <c r="P110" s="16"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>274</v>
       </c>
@@ -6425,8 +6785,10 @@
       <c r="N111" s="3">
         <v>30.32</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O111" s="16"/>
+      <c r="P111" s="16"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>277</v>
       </c>
@@ -6469,8 +6831,10 @@
       <c r="N112" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O112" s="16"/>
+      <c r="P112" s="16"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>280</v>
       </c>
@@ -6513,8 +6877,10 @@
       <c r="N113" s="3">
         <v>73.2</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O113" s="16"/>
+      <c r="P113" s="16"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>282</v>
       </c>
@@ -6557,8 +6923,10 @@
       <c r="N114" s="3">
         <v>31.12</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O114" s="16"/>
+      <c r="P114" s="16"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>284</v>
       </c>
@@ -6601,8 +6969,10 @@
       <c r="N115" s="3">
         <v>28.72</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O115" s="16"/>
+      <c r="P115" s="16"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>286</v>
       </c>
@@ -6645,8 +7015,10 @@
       <c r="N116" s="3">
         <v>31.12</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O116" s="16"/>
+      <c r="P116" s="16"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>288</v>
       </c>
@@ -6689,8 +7061,10 @@
       <c r="N117" s="3">
         <v>20.72</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O117" s="16"/>
+      <c r="P117" s="16"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>290</v>
       </c>
@@ -6733,8 +7107,10 @@
       <c r="N118" s="3">
         <v>54.4</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O118" s="16"/>
+      <c r="P118" s="16"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>292</v>
       </c>
@@ -6777,8 +7153,10 @@
       <c r="N119" s="3">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>294</v>
       </c>
@@ -6821,8 +7199,10 @@
       <c r="N120" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O120" s="16"/>
+      <c r="P120" s="16"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>296</v>
       </c>
@@ -6865,8 +7245,10 @@
       <c r="N121" s="3">
         <v>74.8</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O121" s="16"/>
+      <c r="P121" s="16"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>298</v>
       </c>
@@ -6909,8 +7291,10 @@
       <c r="N122" s="3">
         <v>31.04</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O122" s="16"/>
+      <c r="P122" s="16"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>300</v>
       </c>
@@ -6953,8 +7337,10 @@
       <c r="N123" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O123" s="16"/>
+      <c r="P123" s="16"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>302</v>
       </c>
@@ -6997,8 +7383,10 @@
       <c r="N124" s="3">
         <v>69.2</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O124" s="16"/>
+      <c r="P124" s="16"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>304</v>
       </c>
@@ -7041,8 +7429,10 @@
       <c r="N125" s="3">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O125" s="16"/>
+      <c r="P125" s="16"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>306</v>
       </c>
@@ -7085,8 +7475,10 @@
       <c r="N126" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O126" s="16"/>
+      <c r="P126" s="16"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>308</v>
       </c>
@@ -7129,8 +7521,10 @@
       <c r="N127" s="3">
         <v>26.96</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O127" s="16"/>
+      <c r="P127" s="16"/>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>310</v>
       </c>
@@ -7173,8 +7567,10 @@
       <c r="N128" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O128" s="16"/>
+      <c r="P128" s="16"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>312</v>
       </c>
@@ -7217,8 +7613,10 @@
       <c r="N129" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O129" s="16"/>
+      <c r="P129" s="16"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>314</v>
       </c>
@@ -7261,8 +7659,10 @@
       <c r="N130" s="3">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O130" s="16"/>
+      <c r="P130" s="16"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>316</v>
       </c>
@@ -7305,8 +7705,10 @@
       <c r="N131" s="3">
         <v>88.8</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O131" s="16"/>
+      <c r="P131" s="16"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>318</v>
       </c>
@@ -7349,8 +7751,10 @@
       <c r="N132" s="3">
         <v>88.8</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132" s="16"/>
+      <c r="P132" s="16"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>320</v>
       </c>
@@ -7393,8 +7797,10 @@
       <c r="N133" s="3">
         <v>70.8</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O133" s="16"/>
+      <c r="P133" s="16"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>322</v>
       </c>
@@ -7437,8 +7843,10 @@
       <c r="N134" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O134" s="16"/>
+      <c r="P134" s="16"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>324</v>
       </c>
@@ -7481,8 +7889,10 @@
       <c r="N135" s="3">
         <v>37.04</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O135" s="16"/>
+      <c r="P135" s="16"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>326</v>
       </c>
@@ -7525,8 +7935,10 @@
       <c r="N136" s="3">
         <v>53.6</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O136" s="16"/>
+      <c r="P136" s="16"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>328</v>
       </c>
@@ -7569,8 +7981,10 @@
       <c r="N137" s="3">
         <v>78.400000000000006</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O137" s="16"/>
+      <c r="P137" s="16"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>330</v>
       </c>
@@ -7613,8 +8027,10 @@
       <c r="N138" s="3">
         <v>39.520000000000003</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O138" s="16"/>
+      <c r="P138" s="16"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>332</v>
       </c>
@@ -7657,8 +8073,10 @@
       <c r="N139" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O139" s="16"/>
+      <c r="P139" s="16"/>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>334</v>
       </c>
@@ -7701,8 +8119,10 @@
       <c r="N140" s="3">
         <v>65.2</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O140" s="16"/>
+      <c r="P140" s="16"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>336</v>
       </c>
@@ -7745,8 +8165,10 @@
       <c r="N141" s="3">
         <v>94.4</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O141" s="16"/>
+      <c r="P141" s="16"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>338</v>
       </c>
@@ -7789,8 +8211,10 @@
       <c r="N142" s="3">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O142" s="16"/>
+      <c r="P142" s="16"/>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>340</v>
       </c>
@@ -7833,8 +8257,10 @@
       <c r="N143" s="3">
         <v>78.8</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O143" s="16"/>
+      <c r="P143" s="16"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>345</v>
       </c>
@@ -7877,8 +8303,10 @@
       <c r="N144" s="3">
         <v>326.39999999999998</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O144" s="16"/>
+      <c r="P144" s="16"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>348</v>
       </c>
@@ -7921,8 +8349,10 @@
       <c r="N145" s="3">
         <v>199.2</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O145" s="16"/>
+      <c r="P145" s="16"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>368</v>
       </c>
@@ -7965,8 +8395,14 @@
       <c r="N146" s="11">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O146" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="P146" s="16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>350</v>
       </c>
@@ -8009,8 +8445,10 @@
       <c r="N147" s="3">
         <v>168.8</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O147" s="16"/>
+      <c r="P147" s="16"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>353</v>
       </c>
@@ -8053,8 +8491,10 @@
       <c r="N148" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O148" s="16"/>
+      <c r="P148" s="16"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>356</v>
       </c>
@@ -8097,46 +8537,68 @@
       <c r="N149" s="3">
         <v>47.2</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O149" s="16"/>
+      <c r="P149" s="16"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O150" s="16"/>
+      <c r="P150" s="16"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O151" s="16"/>
+      <c r="P151" s="16"/>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O152" s="16"/>
+      <c r="P152" s="16"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O153" s="16"/>
+      <c r="P153" s="16"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O154" s="16"/>
+      <c r="P154" s="16"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O155" s="16"/>
+      <c r="P155" s="16"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O156" s="16"/>
+      <c r="P156" s="16"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O157" s="16"/>
+      <c r="P157" s="16"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>374</v>
       </c>
+      <c r="O158" s="16"/>
+      <c r="P158" s="16"/>
     </row>
   </sheetData>
   <sortState ref="A2:N148">

--- a/supplemental_info/tables/191104_CMS_TableS1.xlsx
+++ b/supplemental_info/tables/191104_CMS_TableS1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="4860" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="191104_CMS_TableS1.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="363">
   <si>
     <t>Sequence ID</t>
   </si>
@@ -74,12 +74,6 @@
     <t>ALCO</t>
   </si>
   <si>
-    <t>Marsh / Wildlife Refuge / Park</t>
-  </si>
-  <si>
-    <t>Suburban</t>
-  </si>
-  <si>
     <t>blood fed</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
     <t>pipiens</t>
   </si>
   <si>
-    <t xml:space="preserve"> Industrial (waste water treatment plant)</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
     <t>CMS001_005_Ra_S3</t>
   </si>
   <si>
@@ -191,9 +179,6 @@
     <t>CMS001_014</t>
   </si>
   <si>
-    <t>Marsh</t>
-  </si>
-  <si>
     <t>CMS001_015_Ra_S13</t>
   </si>
   <si>
@@ -269,18 +254,12 @@
     <t>CMS001_026</t>
   </si>
   <si>
-    <t>Park</t>
-  </si>
-  <si>
     <t>CMS001_027_Ra_S16</t>
   </si>
   <si>
     <t>CMS001_027</t>
   </si>
   <si>
-    <t>Park / Undeveloped</t>
-  </si>
-  <si>
     <t>CMS001_028_Ra_S17</t>
   </si>
   <si>
@@ -293,9 +272,6 @@
     <t>CMS001_029</t>
   </si>
   <si>
-    <t>Park / adjacent to  Industrial (waste water treatment plant)</t>
-  </si>
-  <si>
     <t>CMS001_030_Ra_S7</t>
   </si>
   <si>
@@ -317,9 +293,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Golf Course</t>
-  </si>
-  <si>
     <t>CMS001_033_Ra_S8</t>
   </si>
   <si>
@@ -617,9 +590,6 @@
     <t>EVS</t>
   </si>
   <si>
-    <t>Rural</t>
-  </si>
-  <si>
     <t>CMS002_020b_Rb_S132_L004</t>
   </si>
   <si>
@@ -824,9 +794,6 @@
     <t>COAV</t>
   </si>
   <si>
-    <t>Marsh; Undeveloped</t>
-  </si>
-  <si>
     <t>CMS002_032a_Rb_S166_L004</t>
   </si>
   <si>
@@ -842,9 +809,6 @@
     <t>CMS002_033a</t>
   </si>
   <si>
-    <t>Residential; Undeveloped</t>
-  </si>
-  <si>
     <t>CMS002_034a_Rb_S168_L004</t>
   </si>
   <si>
@@ -857,9 +821,6 @@
     <t>CMS002_035a</t>
   </si>
   <si>
-    <t>Agriculture; Marsh; Undeveloped</t>
-  </si>
-  <si>
     <t>CMS002_036a_Rb_S170_L004</t>
   </si>
   <si>
@@ -1070,9 +1031,6 @@
     <t>CMS002_050a</t>
   </si>
   <si>
-    <t>Wetland Preserve</t>
-  </si>
-  <si>
     <t>CMS002_051a_Rb_S6_L004</t>
   </si>
   <si>
@@ -1136,102 +1094,28 @@
     <t>CMS002_053a_Rb_S7_L004</t>
   </si>
   <si>
-    <t>Agriculture &amp; Residential</t>
-  </si>
-  <si>
     <t>CMS002_053a</t>
   </si>
   <si>
-    <t>†Trap type abbreviations: AGO=CDC autocidal gravid ovitrap; BG=BG sentinel; CO2=carbon dioxide; EVS=encephalitis virus surveillance; FAY=Fay-Prince carbon dioxide baited; Gravid =CDC gravid trap; OVI=ovitrap</t>
-  </si>
-  <si>
-    <t>*genus and species based on whole transcriptome analyses and visual calls from collection agency</t>
-  </si>
-  <si>
-    <t> **sex based on visual call from collection agency</t>
-  </si>
-  <si>
-    <t>‡Habitat type and Population = information pulled from California Vectorborne Disease Surveillance System (CalSurv) data for each trap site</t>
-  </si>
-  <si>
-    <t>Discrepant_genus_species_call</t>
-  </si>
-  <si>
-    <t>Discrepant_method</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Culiseta </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>incidens</t>
-    </r>
-  </si>
-  <si>
-    <t>visual, sourmash</t>
-  </si>
-  <si>
-    <t>Culex tarsalis</t>
-  </si>
-  <si>
-    <t>visual</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Culex </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tarsalis</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Culex </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tarsalis</t>
-    </r>
-  </si>
-  <si>
-    <t>no call</t>
-  </si>
-  <si>
-    <t>no vis data</t>
-  </si>
-  <si>
-    <t>Culiseta inornata</t>
-  </si>
-  <si>
-    <t>missing sample? no sourmash or ska call</t>
-  </si>
-  <si>
-    <t>Culex quinquefasciatus</t>
-  </si>
-  <si>
-    <t>Culex pipiens</t>
+    <t>rural</t>
+  </si>
+  <si>
+    <t> **sex and bloodfed status based on visual call from collection agency</t>
+  </si>
+  <si>
+    <t>†Trap type abbreviations: AGO=CDC autocidal gravid ovitrap; BG=BG sentinel; EVS=encephalitis virus surveillance; FAY=Fay-Prince carbon dioxide baited; Gravid =CDC gravid trap; OVI=ovitrap</t>
+  </si>
+  <si>
+    <t>‡Habitat type and Population information pulled from California Vectorborne Disease Surveillance System (CalSurv) data for each trap site</t>
+  </si>
+  <si>
+    <t>Visual Genus</t>
+  </si>
+  <si>
+    <t>Visual Species</t>
+  </si>
+  <si>
+    <t>*genus and species call used for study based on whole transcriptome analysis</t>
   </si>
 </sst>
 </file>
@@ -1266,18 +1150,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1313,10 +1198,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1333,14 +1220,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1351,10 +1230,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1630,14 +1518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P158"/>
+  <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="101" workbookViewId="0">
-      <selection activeCell="O146" sqref="O146"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -1645,11 +1534,13 @@
     <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" style="1"/>
+    <col min="14" max="14" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1666,40 +1557,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="I1" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>376</v>
+      <c r="O1" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1722,44 +1613,48 @@
         <v>43011</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N2" s="3">
         <v>27.3</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="O2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -1768,44 +1663,48 @@
         <v>42999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N3" s="3">
         <v>59.8</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="O3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -1814,44 +1713,48 @@
         <v>42997</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N4" s="3">
         <v>88.9</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="O4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>12</v>
@@ -1860,44 +1763,48 @@
         <v>42990</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="9">
         <v>37.715200000000003</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="9">
         <v>-122.19431</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>331</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N5" s="3">
         <v>88.4</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="O5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>12</v>
@@ -1906,38 +1813,42 @@
         <v>43007</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <v>37.78886</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="9">
         <v>-122.29903</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N6" s="3">
         <v>240.7</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="O6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
@@ -1952,38 +1863,42 @@
         <v>42997</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N7" s="3">
         <v>32.5</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1998,44 +1913,48 @@
         <v>42997</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N8" s="3">
         <v>62</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="O8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -2044,44 +1963,48 @@
         <v>42997</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N9" s="3">
         <v>150</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="O9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -2090,38 +2013,42 @@
         <v>42997</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N10" s="3">
         <v>93</v>
       </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="O10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -2136,38 +2063,42 @@
         <v>42997</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N11" s="3">
         <v>14.7</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="O11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -2182,44 +2113,48 @@
         <v>42997</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N12" s="3">
         <v>55</v>
       </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
+      <c r="O12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>12</v>
@@ -2228,38 +2163,42 @@
         <v>42997</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N13" s="3">
         <v>86.1</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
+      <c r="O13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
@@ -2274,44 +2213,48 @@
         <v>42997</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N14" s="3">
         <v>37.200000000000003</v>
       </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="O14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -2320,42 +2263,42 @@
         <v>43014</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="9">
         <v>37.581910000000001</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="9">
         <v>-122.04837999999999</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N15" s="3">
         <v>65</v>
       </c>
-      <c r="O15" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>378</v>
+      <c r="O15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -2370,44 +2313,48 @@
         <v>43005</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N16" s="3">
         <v>63.2</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="O16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>12</v>
@@ -2416,38 +2363,42 @@
         <v>43014</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="9">
         <v>37.581910000000001</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="9">
         <v>-122.04846000000001</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N17" s="3">
         <v>153.4</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
+      <c r="O17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>10</v>
@@ -2462,38 +2413,42 @@
         <v>43014</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="9">
         <v>37.581910000000001</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="9">
         <v>-122.04837999999999</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N18" s="3">
         <v>73.900000000000006</v>
       </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="O18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -2508,38 +2463,42 @@
         <v>43005</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K19" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N19" s="3">
         <v>46.4</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+      <c r="O19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -2554,38 +2513,42 @@
         <v>43012</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N20" s="3">
         <v>59.4</v>
       </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
+      <c r="O20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -2600,38 +2563,42 @@
         <v>43014</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="9">
         <v>37.581910000000001</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="9">
         <v>-122.04846000000001</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N21" s="3">
         <v>33.6</v>
       </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
+      <c r="O21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>10</v>
@@ -2646,38 +2613,42 @@
         <v>43014</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="9">
         <v>37.581910000000001</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="9">
         <v>-122.04837999999999</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N22" s="3">
         <v>32.200000000000003</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
+      <c r="O22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -2692,38 +2663,42 @@
         <v>43005</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K23" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N23" s="3">
         <v>27.4</v>
       </c>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
+      <c r="O23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -2738,38 +2713,42 @@
         <v>43014</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="9">
         <v>37.581910000000001</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="9">
         <v>-122.04837999999999</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N24" s="3">
         <v>98.8</v>
       </c>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
+      <c r="O24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
@@ -2784,44 +2763,48 @@
         <v>43014</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="9">
         <v>37.581910000000001</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="9">
         <v>-122.04837999999999</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N25" s="3">
         <v>3.1</v>
       </c>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
+      <c r="O25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>12</v>
@@ -2830,48 +2813,48 @@
         <v>42999</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K26" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N26" s="3">
         <v>120</v>
       </c>
-      <c r="O26" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>380</v>
+      <c r="O26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>12</v>
@@ -2880,48 +2863,48 @@
         <v>42997</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="9">
         <v>37.509529999999998</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="9">
         <v>-121.93113</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N27" s="3">
         <v>60.6</v>
       </c>
-      <c r="O27" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="P27" s="16" t="s">
-        <v>380</v>
+      <c r="O27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>12</v>
@@ -2930,44 +2913,48 @@
         <v>42990</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="9">
         <v>37.866500000000002</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="9">
         <v>-122.31050999999999</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N28" s="3">
         <v>49.1</v>
       </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
+      <c r="O28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>12</v>
@@ -2976,44 +2963,48 @@
         <v>42990</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="9">
         <v>37.715200000000003</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="9">
         <v>-122.19431</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>28</v>
+        <v>331</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N29" s="3">
         <v>96</v>
       </c>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
+      <c r="O29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>12</v>
@@ -3022,44 +3013,48 @@
         <v>42991</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="9">
         <v>37.684730000000002</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="9">
         <v>-121.91341</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N30" s="3">
         <v>82</v>
       </c>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
+      <c r="O30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>12</v>
@@ -3068,44 +3063,48 @@
         <v>42988</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="9">
         <v>37.715200000000003</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="9">
         <v>-122.19431</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>28</v>
+        <v>331</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N31" s="3">
         <v>273</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
+      <c r="O31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>12</v>
@@ -3114,90 +3113,98 @@
         <v>42991</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="9">
         <v>37.8063</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="9">
         <v>-122.2573</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N32" s="3">
         <v>28.2</v>
       </c>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
+      <c r="O32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>95</v>
+      <c r="F33" s="4">
+        <v>42990</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="9">
         <v>37.661259999999999</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="9">
         <v>-122.13334999999999</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N33" s="3">
         <v>124.3</v>
       </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
+      <c r="O33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>12</v>
@@ -3206,44 +3213,48 @@
         <v>42989</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K34" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N34" s="3">
         <v>32.4</v>
       </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
+      <c r="O34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>12</v>
@@ -3252,38 +3263,42 @@
         <v>42989</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K35" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N35" s="3">
         <v>56.6</v>
       </c>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
+      <c r="O35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>10</v>
@@ -3298,44 +3313,48 @@
         <v>42989</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I36" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K36" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N36" s="3">
         <v>28.8</v>
       </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
+      <c r="O36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>12</v>
@@ -3344,38 +3363,42 @@
         <v>42989</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N37" s="3">
         <v>36.200000000000003</v>
       </c>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
+      <c r="O37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>10</v>
@@ -3390,44 +3413,48 @@
         <v>42965</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I38" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>95</v>
+      <c r="I38" s="9">
+        <v>37.55697</v>
+      </c>
+      <c r="J38" s="9">
+        <v>-122.07938</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N38" s="3">
         <v>42.4</v>
       </c>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
+      <c r="O38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
@@ -3436,44 +3463,48 @@
         <v>42971</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="9">
         <v>37.583910000000003</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="9">
         <v>-122.09238000000001</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N39" s="3">
         <v>74.2</v>
       </c>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
+      <c r="O39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
@@ -3482,44 +3513,48 @@
         <v>42971</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="9">
         <v>37.583910000000003</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="9">
         <v>-122.09238000000001</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N40" s="3">
         <v>104</v>
       </c>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
+      <c r="O40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>12</v>
@@ -3528,48 +3563,48 @@
         <v>42978</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="9">
         <v>37.499490000000002</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="9">
         <v>-121.93378</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N41" s="3">
         <v>27</v>
       </c>
-      <c r="O41" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="P41" s="16" t="s">
-        <v>378</v>
+      <c r="O41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>12</v>
@@ -3578,44 +3613,48 @@
         <v>42978</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="9">
         <v>37.499490000000002</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="9">
         <v>-121.93378</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N42" s="3">
         <v>48</v>
       </c>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
+      <c r="O42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>12</v>
@@ -3624,44 +3663,48 @@
         <v>42972</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="9">
         <v>37.661259999999999</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="9">
         <v>-122.13334999999999</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N43" s="3">
         <v>96</v>
       </c>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
+      <c r="O43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>12</v>
@@ -3670,44 +3713,48 @@
         <v>42972</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="9">
         <v>37.661259999999999</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="9">
         <v>-122.13334999999999</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N44" s="3">
         <v>134</v>
       </c>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
+      <c r="O44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>12</v>
@@ -3716,38 +3763,42 @@
         <v>42972</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="9">
         <v>37.661259999999999</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="9">
         <v>-122.13334999999999</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N45" s="3">
         <v>62</v>
       </c>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
+      <c r="O45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>10</v>
@@ -3762,48 +3813,48 @@
         <v>42950</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N46" s="3">
         <v>6.1</v>
       </c>
-      <c r="O46" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="P46" s="16" t="s">
-        <v>380</v>
+      <c r="O46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
@@ -3812,38 +3863,42 @@
         <v>42950</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="13">
+      <c r="I47" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M47" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N47" s="3">
         <v>29.4</v>
       </c>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
+      <c r="O47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>10</v>
@@ -3858,38 +3913,42 @@
         <v>42950</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="13">
+      <c r="I48" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K48" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N48" s="3">
         <v>48.4</v>
       </c>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
+      <c r="O48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>10</v>
@@ -3904,38 +3963,42 @@
         <v>42950</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K49" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N49" s="3">
         <v>29.4</v>
       </c>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
+      <c r="O49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>10</v>
@@ -3950,38 +4013,42 @@
         <v>42950</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K50" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N50" s="3">
         <v>54.4</v>
       </c>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
+      <c r="O50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>10</v>
@@ -3996,44 +4063,48 @@
         <v>43025</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="9">
         <v>37.506079999999997</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="9">
         <v>-121.99857</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N51" s="3">
         <v>57</v>
       </c>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
+      <c r="O51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
@@ -4042,38 +4113,42 @@
         <v>43025</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="9">
         <v>37.506079999999997</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="9">
         <v>-121.99857</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N52" s="3">
         <v>94.3</v>
       </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
+      <c r="O52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>10</v>
@@ -4088,38 +4163,42 @@
         <v>42999</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="13">
+      <c r="I53" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K53" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N53" s="3">
         <v>63.4</v>
       </c>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
+      <c r="O53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>10</v>
@@ -4134,44 +4213,48 @@
         <v>43015</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K54" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N54" s="3">
         <v>75.599999999999994</v>
       </c>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
+      <c r="O54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
@@ -4180,38 +4263,42 @@
         <v>42410</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="13">
+      <c r="I55" s="9">
         <v>37.630830000000003</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="9">
         <v>-122.14267</v>
       </c>
       <c r="K55" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N55" s="3">
         <v>69.599999999999994</v>
       </c>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
+      <c r="O55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>10</v>
@@ -4226,38 +4313,42 @@
         <v>42999</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="13">
+      <c r="I56" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N56" s="3">
         <v>34.799999999999997</v>
       </c>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
+      <c r="O56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>10</v>
@@ -4272,38 +4363,42 @@
         <v>42999</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K57" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N57" s="3">
         <v>33.6</v>
       </c>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
+      <c r="O57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>10</v>
@@ -4318,38 +4413,42 @@
         <v>42999</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K58" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="N58" s="3">
         <v>26.6</v>
       </c>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
+      <c r="O58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>10</v>
@@ -4360,52 +4459,52 @@
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>95</v>
+      <c r="F59" s="4">
+        <v>42999</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>95</v>
+      <c r="I59" s="9">
+        <v>37.55697</v>
+      </c>
+      <c r="J59" s="9">
+        <v>-122.07938</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N59" s="3">
         <v>82.5</v>
       </c>
-      <c r="O59" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="P59" s="16" t="s">
-        <v>384</v>
+      <c r="O59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
@@ -4414,41 +4513,49 @@
         <v>43032</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="9">
         <v>37.668300000000002</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="9">
         <v>-122.15915</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N60" s="3">
         <v>201</v>
       </c>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
+      <c r="O60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E61" s="2" t="s">
         <v>12</v>
       </c>
@@ -4456,46 +4563,46 @@
         <v>43031</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="9">
         <v>37.55697</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="9">
         <v>-122.07938</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N61" s="3">
         <v>66</v>
       </c>
-      <c r="O61" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="P61" s="16" t="s">
-        <v>386</v>
+      <c r="O61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
@@ -4504,44 +4611,48 @@
         <v>43054</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I62" s="13">
+        <v>149</v>
+      </c>
+      <c r="I62" s="9">
         <v>32.796265900000002</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="9">
         <v>-116.9594824</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N62" s="3">
         <v>78.400000000000006</v>
       </c>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
+      <c r="O62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
@@ -4550,44 +4661,48 @@
         <v>43054</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I63" s="13">
+        <v>149</v>
+      </c>
+      <c r="I63" s="9">
         <v>32.799194300000003</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="9">
         <v>-116.91930619999999</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N63" s="3">
         <v>101.6</v>
       </c>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
+      <c r="O63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
@@ -4596,48 +4711,48 @@
         <v>43054</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I64" s="13">
+        <v>149</v>
+      </c>
+      <c r="I64" s="9">
         <v>32.785636199999999</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="9">
         <v>-116.9887078</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N64" s="3">
         <v>103.2</v>
       </c>
-      <c r="O64" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="P64" s="16" t="s">
-        <v>378</v>
+      <c r="O64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
@@ -4646,44 +4761,48 @@
         <v>43054</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I65" s="13">
+        <v>149</v>
+      </c>
+      <c r="I65" s="9">
         <v>32.798152899999998</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="9">
         <v>-116.95440840000001</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N65" s="3">
         <v>264</v>
       </c>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
+      <c r="O65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>12</v>
@@ -4692,44 +4811,48 @@
         <v>43054</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I66" s="13">
+        <v>149</v>
+      </c>
+      <c r="I66" s="9">
         <v>32.799618500000001</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="9">
         <v>-116.93932030000001</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N66" s="3">
         <v>30.6</v>
       </c>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
+      <c r="O66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>12</v>
@@ -4738,44 +4861,48 @@
         <v>43054</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I67" s="13">
+        <v>149</v>
+      </c>
+      <c r="I67" s="9">
         <v>32.715239500000003</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="9">
         <v>-117.1148424</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N67" s="3">
         <v>81.599999999999994</v>
       </c>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
+      <c r="O67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>12</v>
@@ -4784,44 +4911,48 @@
         <v>43067</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I68" s="13">
+        <v>149</v>
+      </c>
+      <c r="I68" s="9">
         <v>32.554290700000003</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="9">
         <v>-117.04828000000001</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N68" s="3">
         <v>62.4</v>
       </c>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
+      <c r="O68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>12</v>
@@ -4830,44 +4961,48 @@
         <v>43067</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I69" s="13">
+        <v>149</v>
+      </c>
+      <c r="I69" s="9">
         <v>32.554290700000003</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="9">
         <v>-117.04828000000001</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N69" s="3">
         <v>54.4</v>
       </c>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
+      <c r="O69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>12</v>
@@ -4876,44 +5011,48 @@
         <v>43067</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I70" s="13">
+        <v>149</v>
+      </c>
+      <c r="I70" s="9">
         <v>32.554290700000003</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="9">
         <v>-117.04828000000001</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N70" s="3">
         <v>34.799999999999997</v>
       </c>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
+      <c r="O70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>12</v>
@@ -4922,44 +5061,48 @@
         <v>43067</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I71" s="13">
+        <v>149</v>
+      </c>
+      <c r="I71" s="9">
         <v>32.554290700000003</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J71" s="9">
         <v>-117.04828000000001</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N71" s="3">
         <v>40.799999999999997</v>
       </c>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
+      <c r="O71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>12</v>
@@ -4968,44 +5111,48 @@
         <v>43067</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I72" s="13">
+        <v>149</v>
+      </c>
+      <c r="I72" s="9">
         <v>32.554290700000003</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="9">
         <v>-117.04828000000001</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N72" s="3">
         <v>45.2</v>
       </c>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
+      <c r="O72" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>12</v>
@@ -5014,44 +5161,48 @@
         <v>43432</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I73" s="13">
+        <v>149</v>
+      </c>
+      <c r="I73" s="9">
         <v>32.695221500000002</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="9">
         <v>-117.1221922</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N73" s="3">
         <v>138.4</v>
       </c>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
+      <c r="O73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>12</v>
@@ -5060,44 +5211,48 @@
         <v>43432</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I74" s="13">
+        <v>149</v>
+      </c>
+      <c r="I74" s="9">
         <v>32.695221500000002</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="9">
         <v>-117.1221922</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N74" s="3">
         <v>32.4</v>
       </c>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
+      <c r="O74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
@@ -5106,44 +5261,48 @@
         <v>43068</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I75" s="13">
+        <v>149</v>
+      </c>
+      <c r="I75" s="9">
         <v>32.760258</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="9">
         <v>-117.0813933</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N75" s="3">
         <v>38.700000000000003</v>
       </c>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
+      <c r="O75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
@@ -5152,44 +5311,48 @@
         <v>43070</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I76" s="13">
+        <v>149</v>
+      </c>
+      <c r="I76" s="9">
         <v>32.940749099999998</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J76" s="9">
         <v>-117.2165239</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N76" s="3">
         <v>135.19999999999999</v>
       </c>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
+      <c r="O76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>12</v>
@@ -5198,44 +5361,48 @@
         <v>43070</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I77" s="13">
+        <v>149</v>
+      </c>
+      <c r="I77" s="9">
         <v>32.940749099999998</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J77" s="9">
         <v>-117.2165239</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N77" s="3">
         <v>260.8</v>
       </c>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
+      <c r="O77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>12</v>
@@ -5244,44 +5411,48 @@
         <v>43070</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I78" s="13">
+        <v>149</v>
+      </c>
+      <c r="I78" s="9">
         <v>32.940749099999998</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J78" s="9">
         <v>-117.2165239</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N78" s="3">
         <v>148</v>
       </c>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
+      <c r="O78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>12</v>
@@ -5290,44 +5461,48 @@
         <v>43070</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I79" s="13">
+        <v>149</v>
+      </c>
+      <c r="I79" s="9">
         <v>32.940749099999998</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J79" s="9">
         <v>-117.2165239</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N79" s="3">
         <v>242.4</v>
       </c>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
+      <c r="O79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>12</v>
@@ -5336,44 +5511,48 @@
         <v>43070</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I80" s="13">
+        <v>149</v>
+      </c>
+      <c r="I80" s="9">
         <v>32.940749099999998</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J80" s="9">
         <v>-117.2165239</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N80" s="3">
         <v>145.6</v>
       </c>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
+      <c r="O80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>12</v>
@@ -5382,44 +5561,48 @@
         <v>43096</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I81" s="13">
+        <v>149</v>
+      </c>
+      <c r="I81" s="9">
         <v>32.940749099999998</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J81" s="9">
         <v>-117.2165239</v>
       </c>
       <c r="K81" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N81" s="3">
         <v>235.2</v>
       </c>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
+      <c r="O81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>12</v>
@@ -5428,44 +5611,48 @@
         <v>43096</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I82" s="13">
+        <v>149</v>
+      </c>
+      <c r="I82" s="9">
         <v>32.552782999999998</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J82" s="9">
         <v>-117.0559469</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N82" s="3">
         <v>96</v>
       </c>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
+      <c r="O82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>12</v>
@@ -5474,636 +5661,692 @@
         <v>43096</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I83" s="13">
+        <v>149</v>
+      </c>
+      <c r="I83" s="9">
         <v>32.5928337</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J83" s="9">
         <v>-117.0575668</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N83" s="3">
         <v>61.6</v>
       </c>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
+      <c r="O83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F84" s="4">
         <v>42970</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I84" s="13">
+        <v>203</v>
+      </c>
+      <c r="I84" s="9">
         <v>33.954614999999997</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J84" s="9">
         <v>-117.693828</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
+        <v>204</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F85" s="4">
         <v>42970</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I85" s="13">
+        <v>203</v>
+      </c>
+      <c r="I85" s="9">
         <v>33.954614999999997</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J85" s="9">
         <v>-117.693828</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
+        <v>204</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F86" s="4">
         <v>42970</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I86" s="13">
+        <v>203</v>
+      </c>
+      <c r="I86" s="9">
         <v>33.954614999999997</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J86" s="9">
         <v>-117.693828</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N86" s="3">
         <v>40.799999999999997</v>
       </c>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
+      <c r="O86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F87" s="4">
         <v>42970</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I87" s="13">
+        <v>203</v>
+      </c>
+      <c r="I87" s="9">
         <v>33.954614999999997</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J87" s="9">
         <v>-117.693828</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N87" s="3">
         <v>50.8</v>
       </c>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
+      <c r="O87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F88" s="4">
         <v>42970</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I88" s="13">
+        <v>203</v>
+      </c>
+      <c r="I88" s="9">
         <v>33.954614999999997</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J88" s="9">
         <v>-117.693828</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N88" s="3">
         <v>36.64</v>
       </c>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
+      <c r="O88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F89" s="4">
         <v>42970</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I89" s="13">
+        <v>203</v>
+      </c>
+      <c r="I89" s="9">
         <v>33.954614999999997</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J89" s="9">
         <v>-117.693828</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N89" s="3">
         <v>296</v>
       </c>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
+      <c r="O89" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F90" s="4">
         <v>42976</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I90" s="13">
+        <v>203</v>
+      </c>
+      <c r="I90" s="9">
         <v>34.155852000000003</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J90" s="9">
         <v>-117.666926</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N90" s="3">
         <v>29.12</v>
       </c>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
+      <c r="O90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F91" s="4">
         <v>42976</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I91" s="13">
+        <v>203</v>
+      </c>
+      <c r="I91" s="9">
         <v>34.155852000000003</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J91" s="9">
         <v>-117.666926</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N91" s="3">
         <v>26.96</v>
       </c>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
+      <c r="O91" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F92" s="4">
         <v>42976</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I92" s="13">
+        <v>203</v>
+      </c>
+      <c r="I92" s="9">
         <v>34.155852000000003</v>
       </c>
-      <c r="J92" s="13">
+      <c r="J92" s="9">
         <v>-117.666926</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N92" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
+      <c r="O92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F93" s="4">
         <v>42976</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I93" s="13">
+        <v>203</v>
+      </c>
+      <c r="I93" s="9">
         <v>34.155852000000003</v>
       </c>
-      <c r="J93" s="13">
+      <c r="J93" s="9">
         <v>-117.666926</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N93" s="3">
         <v>119.2</v>
       </c>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
+      <c r="O93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F94" s="4">
         <v>42976</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I94" s="13">
+        <v>203</v>
+      </c>
+      <c r="I94" s="9">
         <v>34.155852000000003</v>
       </c>
-      <c r="J94" s="13">
+      <c r="J94" s="9">
         <v>-117.666926</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N94" s="3">
         <v>27.44</v>
       </c>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
+      <c r="O94" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F95" s="4">
         <v>43054</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I95" s="13">
+        <v>203</v>
+      </c>
+      <c r="I95" s="9">
         <v>34.150852999999998</v>
       </c>
-      <c r="J95" s="13">
+      <c r="J95" s="9">
         <v>-117.642917</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N95" s="3">
         <v>189.6</v>
       </c>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
+      <c r="O95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F96" s="4">
         <v>43054</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I96" s="13">
+        <v>203</v>
+      </c>
+      <c r="I96" s="9">
         <v>34.150852999999998</v>
       </c>
-      <c r="J96" s="13">
+      <c r="J96" s="9">
         <v>-117.642917</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N96" s="3">
         <v>191.2</v>
       </c>
-      <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
+      <c r="O96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>10</v>
@@ -6112,44 +6355,48 @@
         <v>11</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F97" s="4">
         <v>43054</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I97" s="13">
+        <v>203</v>
+      </c>
+      <c r="I97" s="9">
         <v>33.935000000000002</v>
       </c>
-      <c r="J97" s="13">
+      <c r="J97" s="9">
         <v>-117.655833</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N97" s="3">
         <v>82.4</v>
       </c>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
+      <c r="O97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>10</v>
@@ -6158,44 +6405,48 @@
         <v>11</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F98" s="4">
         <v>43054</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I98" s="13">
+        <v>203</v>
+      </c>
+      <c r="I98" s="9">
         <v>33.935000000000002</v>
       </c>
-      <c r="J98" s="13">
+      <c r="J98" s="9">
         <v>-117.655833</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N98" s="3">
         <v>104.8</v>
       </c>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
+      <c r="O98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>10</v>
@@ -6204,44 +6455,48 @@
         <v>11</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F99" s="4">
         <v>43054</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I99" s="13">
+        <v>203</v>
+      </c>
+      <c r="I99" s="9">
         <v>33.935000000000002</v>
       </c>
-      <c r="J99" s="13">
+      <c r="J99" s="9">
         <v>-117.655833</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N99" s="3">
         <v>48.4</v>
       </c>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
+      <c r="O99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>10</v>
@@ -6250,44 +6505,48 @@
         <v>11</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F100" s="4">
         <v>43054</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I100" s="13">
+        <v>203</v>
+      </c>
+      <c r="I100" s="9">
         <v>33.935000000000002</v>
       </c>
-      <c r="J100" s="13">
+      <c r="J100" s="9">
         <v>-117.655833</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N100" s="3">
         <v>57.2</v>
       </c>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
+      <c r="O100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>10</v>
@@ -6296,234 +6555,254 @@
         <v>11</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F101" s="4">
         <v>43054</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I101" s="13">
+        <v>203</v>
+      </c>
+      <c r="I101" s="9">
         <v>33.935000000000002</v>
       </c>
-      <c r="J101" s="13">
+      <c r="J101" s="9">
         <v>-117.655833</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N101" s="3">
         <v>79.599999999999994</v>
       </c>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
+      <c r="O101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F102" s="4">
         <v>43054</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I102" s="13">
+        <v>203</v>
+      </c>
+      <c r="I102" s="9">
         <v>33.925832999999997</v>
       </c>
-      <c r="J102" s="13">
+      <c r="J102" s="9">
         <v>-117.659722</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N102" s="3">
         <v>121.6</v>
       </c>
-      <c r="O102" s="16"/>
-      <c r="P102" s="16"/>
+      <c r="O102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F103" s="4">
         <v>43054</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I103" s="13">
+        <v>203</v>
+      </c>
+      <c r="I103" s="9">
         <v>33.925832999999997</v>
       </c>
-      <c r="J103" s="13">
+      <c r="J103" s="9">
         <v>-117.659722</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N103" s="3">
         <v>179.2</v>
       </c>
-      <c r="O103" s="16"/>
-      <c r="P103" s="16"/>
+      <c r="O103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F104" s="4">
         <v>43054</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I104" s="13">
+        <v>203</v>
+      </c>
+      <c r="I104" s="9">
         <v>33.925832999999997</v>
       </c>
-      <c r="J104" s="13">
+      <c r="J104" s="9">
         <v>-117.659722</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N104" s="3">
         <v>179.2</v>
       </c>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
+      <c r="O104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F105" s="4">
         <v>43054</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I105" s="13">
+        <v>203</v>
+      </c>
+      <c r="I105" s="9">
         <v>33.925832999999997</v>
       </c>
-      <c r="J105" s="13">
+      <c r="J105" s="9">
         <v>-117.659722</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N105" s="3">
         <v>116.8</v>
       </c>
-      <c r="O105" s="16"/>
-      <c r="P105" s="16"/>
+      <c r="O105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>12</v>
@@ -6532,44 +6811,48 @@
         <v>43054</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I106" s="13">
+        <v>203</v>
+      </c>
+      <c r="I106" s="9">
         <v>33.925832999999997</v>
       </c>
-      <c r="J106" s="13">
+      <c r="J106" s="9">
         <v>-117.659722</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N106" s="3">
         <v>47.2</v>
       </c>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
+      <c r="O106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>12</v>
@@ -6581,44 +6864,48 @@
         <v>13</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I107" s="13">
+        <v>254</v>
+      </c>
+      <c r="I107" s="9">
         <v>33.516796999999997</v>
       </c>
-      <c r="J107" s="13">
+      <c r="J107" s="9">
         <v>-116.08246800000001</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N107" s="3">
         <v>27.68</v>
       </c>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16"/>
+      <c r="O107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F108" s="4">
         <v>43046</v>
@@ -6627,41 +6914,45 @@
         <v>13</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I108" s="13">
+        <v>254</v>
+      </c>
+      <c r="I108" s="9">
         <v>33.516796999999997</v>
       </c>
-      <c r="J108" s="13">
+      <c r="J108" s="9">
         <v>-116.08246800000001</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N108" s="3">
         <v>20</v>
       </c>
-      <c r="O108" s="16"/>
-      <c r="P108" s="16"/>
+      <c r="O108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>12</v>
@@ -6673,44 +6964,48 @@
         <v>13</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I109" s="13">
+        <v>254</v>
+      </c>
+      <c r="I109" s="9">
         <v>33.569223000000001</v>
       </c>
-      <c r="J109" s="13">
+      <c r="J109" s="9">
         <v>-116.079206</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>271</v>
+        <v>104</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N109" s="3">
         <v>58</v>
       </c>
-      <c r="O109" s="16"/>
-      <c r="P109" s="16"/>
+      <c r="O109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F110" s="4">
         <v>43046</v>
@@ -6719,41 +7014,45 @@
         <v>13</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I110" s="13">
+        <v>254</v>
+      </c>
+      <c r="I110" s="9">
         <v>33.569223000000001</v>
       </c>
-      <c r="J110" s="13">
+      <c r="J110" s="9">
         <v>-116.079206</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>271</v>
+        <v>104</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N110" s="3">
         <v>39.840000000000003</v>
       </c>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16"/>
+      <c r="O110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>12</v>
@@ -6765,44 +7064,48 @@
         <v>13</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I111" s="13">
+        <v>254</v>
+      </c>
+      <c r="I111" s="9">
         <v>33.539988000000001</v>
       </c>
-      <c r="J111" s="13">
+      <c r="J111" s="9">
         <v>-116.078863</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N111" s="3">
         <v>30.32</v>
       </c>
-      <c r="O111" s="16"/>
-      <c r="P111" s="16"/>
+      <c r="O111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F112" s="4">
         <v>43046</v>
@@ -6811,41 +7114,45 @@
         <v>13</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I112" s="13">
+        <v>254</v>
+      </c>
+      <c r="I112" s="9">
         <v>33.539988000000001</v>
       </c>
-      <c r="J112" s="13">
+      <c r="J112" s="9">
         <v>-116.078863</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="O112" s="16"/>
-      <c r="P112" s="16"/>
+        <v>266</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>12</v>
@@ -6857,41 +7164,45 @@
         <v>13</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I113" s="13">
+        <v>254</v>
+      </c>
+      <c r="I113" s="9">
         <v>33.463593000000003</v>
       </c>
-      <c r="J113" s="13">
+      <c r="J113" s="9">
         <v>-116.07427800000001</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N113" s="3">
         <v>73.2</v>
       </c>
-      <c r="O113" s="16"/>
-      <c r="P113" s="16"/>
+      <c r="O113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>12</v>
@@ -6903,41 +7214,45 @@
         <v>13</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I114" s="13">
+        <v>254</v>
+      </c>
+      <c r="I114" s="9">
         <v>33.52908</v>
       </c>
-      <c r="J114" s="13">
+      <c r="J114" s="9">
         <v>-116.035213</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N114" s="3">
         <v>31.12</v>
       </c>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16"/>
+      <c r="O114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>12</v>
@@ -6949,44 +7264,48 @@
         <v>13</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I115" s="13">
+        <v>254</v>
+      </c>
+      <c r="I115" s="9">
         <v>33.532468000000001</v>
       </c>
-      <c r="J115" s="13">
+      <c r="J115" s="9">
         <v>-116.060957</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N115" s="3">
         <v>28.72</v>
       </c>
-      <c r="O115" s="16"/>
-      <c r="P115" s="16"/>
+      <c r="O115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F116" s="4">
         <v>43046</v>
@@ -6995,41 +7314,45 @@
         <v>13</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I116" s="13">
+        <v>254</v>
+      </c>
+      <c r="I116" s="9">
         <v>33.532468000000001</v>
       </c>
-      <c r="J116" s="13">
+      <c r="J116" s="9">
         <v>-116.060957</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N116" s="3">
         <v>31.12</v>
       </c>
-      <c r="O116" s="16"/>
-      <c r="P116" s="16"/>
+      <c r="O116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>12</v>
@@ -7041,41 +7364,45 @@
         <v>13</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I117" s="13">
+        <v>254</v>
+      </c>
+      <c r="I117" s="9">
         <v>33.510767000000001</v>
       </c>
-      <c r="J117" s="13">
+      <c r="J117" s="9">
         <v>-115.920793</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N117" s="3">
         <v>20.72</v>
       </c>
-      <c r="O117" s="16"/>
-      <c r="P117" s="16"/>
+      <c r="O117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
@@ -7087,679 +7414,739 @@
         <v>13</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I118" s="13">
+        <v>254</v>
+      </c>
+      <c r="I118" s="9">
         <v>33.525475</v>
       </c>
-      <c r="J118" s="13">
+      <c r="J118" s="9">
         <v>-115.956632</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N118" s="3">
         <v>54.4</v>
       </c>
-      <c r="O118" s="16"/>
-      <c r="P118" s="16"/>
+      <c r="O118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F119" s="4">
         <v>42970</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I119" s="13">
+        <v>203</v>
+      </c>
+      <c r="I119" s="9">
         <v>33.954531000000003</v>
       </c>
-      <c r="J119" s="13">
+      <c r="J119" s="9">
         <v>-117.692953</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N119" s="3">
         <v>41.6</v>
       </c>
-      <c r="O119" s="16"/>
-      <c r="P119" s="16"/>
+      <c r="O119" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P119" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F120" s="4">
         <v>42970</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I120" s="13">
+        <v>203</v>
+      </c>
+      <c r="I120" s="9">
         <v>33.954531000000003</v>
       </c>
-      <c r="J120" s="13">
+      <c r="J120" s="9">
         <v>-117.692953</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N120" s="3">
         <v>16</v>
       </c>
-      <c r="O120" s="16"/>
-      <c r="P120" s="16"/>
+      <c r="O120" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F121" s="4">
         <v>42970</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I121" s="13">
+        <v>203</v>
+      </c>
+      <c r="I121" s="9">
         <v>33.954531000000003</v>
       </c>
-      <c r="J121" s="13">
+      <c r="J121" s="9">
         <v>-117.692953</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N121" s="3">
         <v>74.8</v>
       </c>
-      <c r="O121" s="16"/>
-      <c r="P121" s="16"/>
+      <c r="O121" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F122" s="4">
         <v>42970</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I122" s="13">
+        <v>203</v>
+      </c>
+      <c r="I122" s="9">
         <v>33.954531000000003</v>
       </c>
-      <c r="J122" s="13">
+      <c r="J122" s="9">
         <v>-117.692953</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N122" s="3">
         <v>31.04</v>
       </c>
-      <c r="O122" s="16"/>
-      <c r="P122" s="16"/>
+      <c r="O122" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F123" s="4">
         <v>42970</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I123" s="13">
+        <v>203</v>
+      </c>
+      <c r="I123" s="9">
         <v>33.954531000000003</v>
       </c>
-      <c r="J123" s="13">
+      <c r="J123" s="9">
         <v>-117.692953</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="O123" s="16"/>
-      <c r="P123" s="16"/>
+        <v>266</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F124" s="4">
         <v>43032</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I124" s="13">
+        <v>203</v>
+      </c>
+      <c r="I124" s="9">
         <v>34.151881000000003</v>
       </c>
-      <c r="J124" s="13">
+      <c r="J124" s="9">
         <v>-117.66295</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N124" s="3">
         <v>69.2</v>
       </c>
-      <c r="O124" s="16"/>
-      <c r="P124" s="16"/>
+      <c r="O124" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F125" s="4">
         <v>43032</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I125" s="13">
+        <v>203</v>
+      </c>
+      <c r="I125" s="9">
         <v>34.151881000000003</v>
       </c>
-      <c r="J125" s="13">
+      <c r="J125" s="9">
         <v>-117.66295</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N125" s="3">
         <v>16.8</v>
       </c>
-      <c r="O125" s="16"/>
-      <c r="P125" s="16"/>
+      <c r="O125" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F126" s="4">
         <v>43032</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I126" s="13">
+        <v>203</v>
+      </c>
+      <c r="I126" s="9">
         <v>34.151881000000003</v>
       </c>
-      <c r="J126" s="13">
+      <c r="J126" s="9">
         <v>-117.66295</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="O126" s="16"/>
-      <c r="P126" s="16"/>
+        <v>204</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F127" s="4">
         <v>43032</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I127" s="13">
+        <v>203</v>
+      </c>
+      <c r="I127" s="9">
         <v>34.151881000000003</v>
       </c>
-      <c r="J127" s="13">
+      <c r="J127" s="9">
         <v>-117.66295</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N127" s="3">
         <v>26.96</v>
       </c>
-      <c r="O127" s="16"/>
-      <c r="P127" s="16"/>
+      <c r="O127" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P127" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F128" s="4">
         <v>43032</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I128" s="13">
+        <v>203</v>
+      </c>
+      <c r="I128" s="9">
         <v>34.151881000000003</v>
       </c>
-      <c r="J128" s="13">
+      <c r="J128" s="9">
         <v>-117.66295</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="O128" s="16"/>
-      <c r="P128" s="16"/>
+        <v>204</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F129" s="4">
         <v>43032</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I129" s="13">
+        <v>203</v>
+      </c>
+      <c r="I129" s="9">
         <v>34.151881000000003</v>
       </c>
-      <c r="J129" s="13">
+      <c r="J129" s="9">
         <v>-117.66295</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="O129" s="16"/>
-      <c r="P129" s="16"/>
+        <v>204</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F130" s="4">
         <v>43032</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I130" s="13">
+        <v>203</v>
+      </c>
+      <c r="I130" s="9">
         <v>34.151881000000003</v>
       </c>
-      <c r="J130" s="13">
+      <c r="J130" s="9">
         <v>-117.66295</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N130" s="3">
         <v>21.6</v>
       </c>
-      <c r="O130" s="16"/>
-      <c r="P130" s="16"/>
+      <c r="O130" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P130" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F131" s="4">
         <v>43068</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I131" s="13">
+        <v>203</v>
+      </c>
+      <c r="I131" s="9">
         <v>33.972499999999997</v>
       </c>
-      <c r="J131" s="13">
+      <c r="J131" s="9">
         <v>-117.714444</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N131" s="3">
         <v>88.8</v>
       </c>
-      <c r="O131" s="16"/>
-      <c r="P131" s="16"/>
+      <c r="O131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P131" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F132" s="4">
         <v>43068</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I132" s="13">
+        <v>203</v>
+      </c>
+      <c r="I132" s="9">
         <v>33.972499999999997</v>
       </c>
-      <c r="J132" s="13">
+      <c r="J132" s="9">
         <v>-117.714444</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N132" s="3">
         <v>88.8</v>
       </c>
-      <c r="O132" s="16"/>
-      <c r="P132" s="16"/>
+      <c r="O132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>10</v>
@@ -7768,44 +8155,48 @@
         <v>11</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F133" s="4">
         <v>43068</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I133" s="13">
+        <v>203</v>
+      </c>
+      <c r="I133" s="9">
         <v>33.937779999999997</v>
       </c>
-      <c r="J133" s="13">
+      <c r="J133" s="9">
         <v>-117.633056</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N133" s="3">
         <v>70.8</v>
       </c>
-      <c r="O133" s="16"/>
-      <c r="P133" s="16"/>
+      <c r="O133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P133" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>10</v>
@@ -7814,44 +8205,48 @@
         <v>11</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F134" s="4">
         <v>43068</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I134" s="13">
+        <v>203</v>
+      </c>
+      <c r="I134" s="9">
         <v>33.937779999999997</v>
       </c>
-      <c r="J134" s="13">
+      <c r="J134" s="9">
         <v>-117.633056</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="O134" s="16"/>
-      <c r="P134" s="16"/>
+        <v>204</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P134" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>10</v>
@@ -7860,44 +8255,48 @@
         <v>11</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F135" s="4">
         <v>43068</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I135" s="13">
+        <v>203</v>
+      </c>
+      <c r="I135" s="9">
         <v>33.937779999999997</v>
       </c>
-      <c r="J135" s="13">
+      <c r="J135" s="9">
         <v>-117.633056</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N135" s="3">
         <v>37.04</v>
       </c>
-      <c r="O135" s="16"/>
-      <c r="P135" s="16"/>
+      <c r="O135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P135" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>10</v>
@@ -7906,44 +8305,48 @@
         <v>11</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F136" s="4">
         <v>43068</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I136" s="13">
+        <v>203</v>
+      </c>
+      <c r="I136" s="9">
         <v>33.937779999999997</v>
       </c>
-      <c r="J136" s="13">
+      <c r="J136" s="9">
         <v>-117.633056</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N136" s="3">
         <v>53.6</v>
       </c>
-      <c r="O136" s="16"/>
-      <c r="P136" s="16"/>
+      <c r="O136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>10</v>
@@ -7952,44 +8355,48 @@
         <v>11</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F137" s="4">
         <v>43068</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I137" s="13">
+        <v>203</v>
+      </c>
+      <c r="I137" s="9">
         <v>33.937779999999997</v>
       </c>
-      <c r="J137" s="13">
+      <c r="J137" s="9">
         <v>-117.633056</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N137" s="3">
         <v>78.400000000000006</v>
       </c>
-      <c r="O137" s="16"/>
-      <c r="P137" s="16"/>
+      <c r="O137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P137" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>10</v>
@@ -7998,44 +8405,48 @@
         <v>11</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F138" s="4">
         <v>43068</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I138" s="13">
+        <v>203</v>
+      </c>
+      <c r="I138" s="9">
         <v>33.937779999999997</v>
       </c>
-      <c r="J138" s="13">
+      <c r="J138" s="9">
         <v>-117.633056</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N138" s="3">
         <v>39.520000000000003</v>
       </c>
-      <c r="O138" s="16"/>
-      <c r="P138" s="16"/>
+      <c r="O138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>10</v>
@@ -8044,44 +8455,48 @@
         <v>11</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F139" s="4">
         <v>43068</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I139" s="13">
+        <v>203</v>
+      </c>
+      <c r="I139" s="9">
         <v>33.937779999999997</v>
       </c>
-      <c r="J139" s="13">
+      <c r="J139" s="9">
         <v>-117.633056</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N139" s="3">
         <v>40</v>
       </c>
-      <c r="O139" s="16"/>
-      <c r="P139" s="16"/>
+      <c r="O139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P139" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>10</v>
@@ -8090,44 +8505,48 @@
         <v>11</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F140" s="4">
         <v>43068</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I140" s="13">
+        <v>203</v>
+      </c>
+      <c r="I140" s="9">
         <v>33.937779999999997</v>
       </c>
-      <c r="J140" s="13">
+      <c r="J140" s="9">
         <v>-117.633056</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N140" s="3">
         <v>65.2</v>
       </c>
-      <c r="O140" s="16"/>
-      <c r="P140" s="16"/>
+      <c r="O140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P140" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>10</v>
@@ -8136,44 +8555,48 @@
         <v>11</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F141" s="4">
         <v>43068</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I141" s="13">
+        <v>203</v>
+      </c>
+      <c r="I141" s="9">
         <v>33.937779999999997</v>
       </c>
-      <c r="J141" s="13">
+      <c r="J141" s="9">
         <v>-117.633056</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N141" s="3">
         <v>94.4</v>
       </c>
-      <c r="O141" s="16"/>
-      <c r="P141" s="16"/>
+      <c r="O141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P141" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>10</v>
@@ -8182,423 +8605,434 @@
         <v>11</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F142" s="4">
         <v>43068</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I142" s="13">
+        <v>203</v>
+      </c>
+      <c r="I142" s="9">
         <v>33.937779999999997</v>
       </c>
-      <c r="J142" s="13">
+      <c r="J142" s="9">
         <v>-117.633056</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N142" s="3">
         <v>48.4</v>
       </c>
-      <c r="O142" s="16"/>
-      <c r="P142" s="16"/>
+      <c r="O142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P142" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F143" s="4">
         <v>43060</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I143" s="13">
+        <v>330</v>
+      </c>
+      <c r="I143" s="9">
         <v>38.739939</v>
       </c>
-      <c r="J143" s="13">
+      <c r="J143" s="9">
         <v>-121.30563600000001</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N143" s="3">
         <v>78.8</v>
       </c>
-      <c r="O143" s="16"/>
-      <c r="P143" s="16"/>
+      <c r="O143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P143" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F144" s="4">
         <v>43060</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I144" s="13">
+        <v>330</v>
+      </c>
+      <c r="I144" s="9">
         <v>38.824306</v>
       </c>
-      <c r="J144" s="13">
+      <c r="J144" s="9">
         <v>-121.25706700000001</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>347</v>
+        <v>29</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N144" s="3">
         <v>326.39999999999998</v>
       </c>
-      <c r="O144" s="16"/>
-      <c r="P144" s="16"/>
+      <c r="O144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F145" s="4">
         <v>43060</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I145" s="13">
+        <v>330</v>
+      </c>
+      <c r="I145" s="9">
         <v>38.897571999999997</v>
       </c>
-      <c r="J145" s="13">
+      <c r="J145" s="9">
         <v>-121.311747</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N145" s="3">
         <v>199.2</v>
       </c>
-      <c r="O145" s="16"/>
-      <c r="P145" s="16"/>
+      <c r="O145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P145" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A146" s="8" t="s">
-        <v>368</v>
+      <c r="A146" s="13" t="s">
+        <v>354</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>27</v>
+        <v>355</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F146" s="10">
+        <v>87</v>
+      </c>
+      <c r="F146" s="15">
         <v>43060</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I146" s="14">
+        <v>330</v>
+      </c>
+      <c r="I146" s="10">
         <v>38.836781000000002</v>
       </c>
-      <c r="J146" s="14">
+      <c r="J146" s="10">
         <v>-121.39118999999999</v>
       </c>
-      <c r="K146" s="9" t="s">
-        <v>369</v>
+      <c r="K146" s="14" t="s">
+        <v>338</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="N146" s="11">
+        <v>166</v>
+      </c>
+      <c r="N146" s="16">
         <v>19.899999999999999</v>
       </c>
-      <c r="O146" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="P146" s="16" t="s">
-        <v>386</v>
+      <c r="O146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P146" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F147" s="4">
         <v>43060</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I147" s="13">
+        <v>330</v>
+      </c>
+      <c r="I147" s="9">
         <v>38.772221999999999</v>
       </c>
-      <c r="J147" s="13">
+      <c r="J147" s="9">
         <v>-121.4695</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N147" s="3">
         <v>168.8</v>
       </c>
-      <c r="O147" s="16"/>
-      <c r="P147" s="16"/>
+      <c r="O147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F148" s="4">
         <v>43067</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I148" s="13">
+        <v>330</v>
+      </c>
+      <c r="I148" s="9">
         <v>38.787210999999999</v>
       </c>
-      <c r="J148" s="13">
+      <c r="J148" s="9">
         <v>-121.372895</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="O148" s="16"/>
-      <c r="P148" s="16"/>
+        <v>204</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P148" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F149" s="4">
         <v>43067</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I149" s="13">
+        <v>330</v>
+      </c>
+      <c r="I149" s="9">
         <v>38.787210999999999</v>
       </c>
-      <c r="J149" s="13">
+      <c r="J149" s="9">
         <v>-121.372895</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N149" s="3">
         <v>47.2</v>
       </c>
-      <c r="O149" s="16"/>
-      <c r="P149" s="16"/>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O150" s="16"/>
-      <c r="P150" s="16"/>
+      <c r="O149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P149" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="O151" s="16"/>
-      <c r="P151" s="16"/>
+        <v>353</v>
+      </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>358</v>
-      </c>
-      <c r="O152" s="16"/>
-      <c r="P152" s="16"/>
+        <v>344</v>
+      </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>359</v>
-      </c>
-      <c r="O153" s="16"/>
-      <c r="P153" s="16"/>
+        <v>345</v>
+      </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>372</v>
-      </c>
-      <c r="O154" s="16"/>
-      <c r="P154" s="16"/>
+        <v>362</v>
+      </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>373</v>
-      </c>
-      <c r="O155" s="16"/>
-      <c r="P155" s="16"/>
+        <v>357</v>
+      </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>371</v>
-      </c>
-      <c r="O156" s="16"/>
-      <c r="P156" s="16"/>
+        <v>358</v>
+      </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>362</v>
-      </c>
-      <c r="O157" s="16"/>
-      <c r="P157" s="16"/>
+        <v>348</v>
+      </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>374</v>
-      </c>
-      <c r="O158" s="16"/>
-      <c r="P158" s="16"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A160" s="12"/>
     </row>
   </sheetData>
   <sortState ref="A2:N148">
